--- a/AAII_Financials/Yearly/NVCN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVCN_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -723,13 +723,13 @@
         <v>6900</v>
       </c>
       <c r="H8" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="I8" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="J8" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -747,13 +747,13 @@
         <v>500</v>
       </c>
       <c r="G9" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H9" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="I9" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="J9" s="3">
         <v>11700</v>
@@ -774,7 +774,7 @@
         <v>1800</v>
       </c>
       <c r="G10" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H10" s="3">
         <v>3100</v>
@@ -805,25 +805,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>25500</v>
+        <v>25400</v>
       </c>
       <c r="E12" s="3">
-        <v>25100</v>
+        <v>24900</v>
       </c>
       <c r="F12" s="3">
-        <v>20100</v>
+        <v>20000</v>
       </c>
       <c r="G12" s="3">
-        <v>21900</v>
+        <v>21800</v>
       </c>
       <c r="H12" s="3">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="I12" s="3">
-        <v>21700</v>
+        <v>21600</v>
       </c>
       <c r="J12" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -865,16 +865,16 @@
         <v>1200</v>
       </c>
       <c r="F14" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="G14" s="3">
         <v>4000</v>
       </c>
       <c r="H14" s="3">
-        <v>163700</v>
+        <v>162600</v>
       </c>
       <c r="I14" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="J14" s="3">
         <v>1100</v>
@@ -923,25 +923,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>47600</v>
+        <v>47300</v>
       </c>
       <c r="E17" s="3">
-        <v>41400</v>
+        <v>41100</v>
       </c>
       <c r="F17" s="3">
-        <v>43800</v>
+        <v>43500</v>
       </c>
       <c r="G17" s="3">
-        <v>49100</v>
+        <v>48800</v>
       </c>
       <c r="H17" s="3">
-        <v>206300</v>
+        <v>204800</v>
       </c>
       <c r="I17" s="3">
-        <v>49600</v>
+        <v>49300</v>
       </c>
       <c r="J17" s="3">
-        <v>40600</v>
+        <v>40300</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-45100</v>
+        <v>-44800</v>
       </c>
       <c r="E18" s="3">
-        <v>-38700</v>
+        <v>-38400</v>
       </c>
       <c r="F18" s="3">
-        <v>-41600</v>
+        <v>-41300</v>
       </c>
       <c r="G18" s="3">
-        <v>-42200</v>
+        <v>-41900</v>
       </c>
       <c r="H18" s="3">
-        <v>-194000</v>
+        <v>-192700</v>
       </c>
       <c r="I18" s="3">
-        <v>-36900</v>
+        <v>-36600</v>
       </c>
       <c r="J18" s="3">
-        <v>-22200</v>
+        <v>-22000</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,19 +990,19 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="E20" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="F20" s="3">
-        <v>-96800</v>
+        <v>-96100</v>
       </c>
       <c r="G20" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="H20" s="3">
-        <v>83400</v>
+        <v>82800</v>
       </c>
       <c r="I20" s="3">
         <v>2800</v>
@@ -1017,25 +1017,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-35200</v>
+        <v>-34900</v>
       </c>
       <c r="E21" s="3">
-        <v>-44000</v>
+        <v>-43700</v>
       </c>
       <c r="F21" s="3">
-        <v>-137900</v>
+        <v>-136900</v>
       </c>
       <c r="G21" s="3">
-        <v>-28100</v>
+        <v>-27900</v>
       </c>
       <c r="H21" s="3">
-        <v>-109700</v>
+        <v>-109000</v>
       </c>
       <c r="I21" s="3">
-        <v>-33400</v>
+        <v>-33200</v>
       </c>
       <c r="J21" s="3">
-        <v>-21600</v>
+        <v>-21400</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-37500</v>
+        <v>-37200</v>
       </c>
       <c r="E23" s="3">
-        <v>-45000</v>
+        <v>-44700</v>
       </c>
       <c r="F23" s="3">
-        <v>-138400</v>
+        <v>-137400</v>
       </c>
       <c r="G23" s="3">
-        <v>-28800</v>
+        <v>-28600</v>
       </c>
       <c r="H23" s="3">
-        <v>-110700</v>
+        <v>-109900</v>
       </c>
       <c r="I23" s="3">
-        <v>-34100</v>
+        <v>-33800</v>
       </c>
       <c r="J23" s="3">
-        <v>-22000</v>
+        <v>-21900</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-36800</v>
+        <v>-36600</v>
       </c>
       <c r="E26" s="3">
-        <v>-45100</v>
+        <v>-44700</v>
       </c>
       <c r="F26" s="3">
-        <v>-138500</v>
+        <v>-137500</v>
       </c>
       <c r="G26" s="3">
-        <v>-29400</v>
+        <v>-29200</v>
       </c>
       <c r="H26" s="3">
-        <v>-110900</v>
+        <v>-110200</v>
       </c>
       <c r="I26" s="3">
-        <v>-34300</v>
+        <v>-34000</v>
       </c>
       <c r="J26" s="3">
-        <v>-22000</v>
+        <v>-21900</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-36800</v>
+        <v>-36600</v>
       </c>
       <c r="E27" s="3">
-        <v>-45100</v>
+        <v>-44700</v>
       </c>
       <c r="F27" s="3">
-        <v>-138500</v>
+        <v>-137500</v>
       </c>
       <c r="G27" s="3">
-        <v>-29400</v>
+        <v>-29200</v>
       </c>
       <c r="H27" s="3">
-        <v>-110900</v>
+        <v>-110200</v>
       </c>
       <c r="I27" s="3">
-        <v>-34300</v>
+        <v>-34000</v>
       </c>
       <c r="J27" s="3">
-        <v>-22000</v>
+        <v>-21900</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1314,19 +1314,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="E32" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="F32" s="3">
-        <v>96800</v>
+        <v>96100</v>
       </c>
       <c r="G32" s="3">
-        <v>-13400</v>
+        <v>-13300</v>
       </c>
       <c r="H32" s="3">
-        <v>-83400</v>
+        <v>-82800</v>
       </c>
       <c r="I32" s="3">
         <v>-2800</v>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-36800</v>
+        <v>-36600</v>
       </c>
       <c r="E33" s="3">
-        <v>-45100</v>
+        <v>-44700</v>
       </c>
       <c r="F33" s="3">
-        <v>-138500</v>
+        <v>-137500</v>
       </c>
       <c r="G33" s="3">
-        <v>-29400</v>
+        <v>-29200</v>
       </c>
       <c r="H33" s="3">
-        <v>-110900</v>
+        <v>-110200</v>
       </c>
       <c r="I33" s="3">
-        <v>-34300</v>
+        <v>-34000</v>
       </c>
       <c r="J33" s="3">
-        <v>-22000</v>
+        <v>-21900</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-36800</v>
+        <v>-36600</v>
       </c>
       <c r="E35" s="3">
-        <v>-45100</v>
+        <v>-44700</v>
       </c>
       <c r="F35" s="3">
-        <v>-138500</v>
+        <v>-137500</v>
       </c>
       <c r="G35" s="3">
-        <v>-29400</v>
+        <v>-29200</v>
       </c>
       <c r="H35" s="3">
-        <v>-110900</v>
+        <v>-110200</v>
       </c>
       <c r="I35" s="3">
-        <v>-34300</v>
+        <v>-34000</v>
       </c>
       <c r="J35" s="3">
-        <v>-22000</v>
+        <v>-21900</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="E41" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="F41" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="G41" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="H41" s="3">
-        <v>29400</v>
+        <v>29200</v>
       </c>
       <c r="I41" s="3">
-        <v>42800</v>
+        <v>42500</v>
       </c>
       <c r="J41" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>27800</v>
+        <v>27600</v>
       </c>
       <c r="J42" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1600,7 +1600,7 @@
         <v>1000</v>
       </c>
       <c r="H45" s="3">
-        <v>90400</v>
+        <v>89800</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="E46" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="F46" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="G46" s="3">
-        <v>25700</v>
+        <v>25500</v>
       </c>
       <c r="H46" s="3">
-        <v>124100</v>
+        <v>123300</v>
       </c>
       <c r="I46" s="3">
-        <v>73800</v>
+        <v>73300</v>
       </c>
       <c r="J46" s="3">
-        <v>22700</v>
+        <v>22600</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1678,13 +1678,13 @@
         <v>1000</v>
       </c>
       <c r="G48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H48" s="3">
         <v>2000</v>
       </c>
       <c r="I48" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J48" s="3">
         <v>3400</v>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22900</v>
+        <v>22800</v>
       </c>
       <c r="E54" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="F54" s="3">
-        <v>17100</v>
+        <v>17000</v>
       </c>
       <c r="G54" s="3">
-        <v>28500</v>
+        <v>28300</v>
       </c>
       <c r="H54" s="3">
-        <v>126700</v>
+        <v>125900</v>
       </c>
       <c r="I54" s="3">
-        <v>78500</v>
+        <v>78000</v>
       </c>
       <c r="J54" s="3">
-        <v>26100</v>
+        <v>25900</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,13 +1884,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E57" s="3">
         <v>5100</v>
       </c>
       <c r="F57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G57" s="3">
         <v>1600</v>
@@ -1902,7 +1902,7 @@
         <v>3200</v>
       </c>
       <c r="J57" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1914,13 +1914,13 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="F58" s="3">
         <v>1800</v>
       </c>
       <c r="G58" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>19</v>
@@ -1941,16 +1941,16 @@
         <v>4500</v>
       </c>
       <c r="E59" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F59" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G59" s="3">
-        <v>26400</v>
+        <v>26200</v>
       </c>
       <c r="H59" s="3">
-        <v>145400</v>
+        <v>144400</v>
       </c>
       <c r="I59" s="3">
         <v>900</v>
@@ -1968,16 +1968,16 @@
         <v>9800</v>
       </c>
       <c r="E60" s="3">
-        <v>18900</v>
+        <v>18800</v>
       </c>
       <c r="F60" s="3">
         <v>7700</v>
       </c>
       <c r="G60" s="3">
-        <v>33500</v>
+        <v>33300</v>
       </c>
       <c r="H60" s="3">
-        <v>146600</v>
+        <v>145600</v>
       </c>
       <c r="I60" s="3">
         <v>4100</v>
@@ -1992,16 +1992,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="E61" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="F61" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="G61" s="3">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>3100</v>
       </c>
       <c r="G62" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>19</v>
@@ -2127,19 +2127,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20400</v>
+        <v>20300</v>
       </c>
       <c r="E66" s="3">
-        <v>31500</v>
+        <v>31300</v>
       </c>
       <c r="F66" s="3">
-        <v>27800</v>
+        <v>27600</v>
       </c>
       <c r="G66" s="3">
-        <v>75300</v>
+        <v>74700</v>
       </c>
       <c r="H66" s="3">
-        <v>146600</v>
+        <v>145600</v>
       </c>
       <c r="I66" s="3">
         <v>4100</v>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-506900</v>
+        <v>-503400</v>
       </c>
       <c r="E72" s="3">
-        <v>-470100</v>
+        <v>-466900</v>
       </c>
       <c r="F72" s="3">
-        <v>-425100</v>
+        <v>-422100</v>
       </c>
       <c r="G72" s="3">
-        <v>-288200</v>
+        <v>-286200</v>
       </c>
       <c r="H72" s="3">
-        <v>-258800</v>
+        <v>-257000</v>
       </c>
       <c r="I72" s="3">
-        <v>-147900</v>
+        <v>-146900</v>
       </c>
       <c r="J72" s="3">
-        <v>-113600</v>
+        <v>-112800</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2386,22 +2386,22 @@
         <v>2500</v>
       </c>
       <c r="E76" s="3">
-        <v>-18500</v>
+        <v>-18400</v>
       </c>
       <c r="F76" s="3">
-        <v>-10700</v>
+        <v>-10600</v>
       </c>
       <c r="G76" s="3">
-        <v>-46800</v>
+        <v>-46500</v>
       </c>
       <c r="H76" s="3">
-        <v>-19800</v>
+        <v>-19700</v>
       </c>
       <c r="I76" s="3">
-        <v>74400</v>
+        <v>73900</v>
       </c>
       <c r="J76" s="3">
-        <v>23100</v>
+        <v>23000</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-36800</v>
+        <v>-36600</v>
       </c>
       <c r="E81" s="3">
-        <v>-45100</v>
+        <v>-44700</v>
       </c>
       <c r="F81" s="3">
-        <v>-138500</v>
+        <v>-137500</v>
       </c>
       <c r="G81" s="3">
-        <v>-29400</v>
+        <v>-29200</v>
       </c>
       <c r="H81" s="3">
-        <v>-110900</v>
+        <v>-110200</v>
       </c>
       <c r="I81" s="3">
-        <v>-34300</v>
+        <v>-34000</v>
       </c>
       <c r="J81" s="3">
-        <v>-22000</v>
+        <v>-21900</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2671,22 +2671,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-37800</v>
+        <v>-37500</v>
       </c>
       <c r="E89" s="3">
-        <v>-30700</v>
+        <v>-30500</v>
       </c>
       <c r="F89" s="3">
-        <v>-29200</v>
+        <v>-29000</v>
       </c>
       <c r="G89" s="3">
-        <v>-177800</v>
+        <v>-176600</v>
       </c>
       <c r="H89" s="3">
-        <v>-51000</v>
+        <v>-50700</v>
       </c>
       <c r="I89" s="3">
-        <v>-27300</v>
+        <v>-27100</v>
       </c>
       <c r="J89" s="3">
         <v>-10300</v>
@@ -2801,16 +2801,16 @@
         <v>900</v>
       </c>
       <c r="G94" s="3">
-        <v>89100</v>
+        <v>88500</v>
       </c>
       <c r="H94" s="3">
         <v>-4300</v>
       </c>
       <c r="I94" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="J94" s="3">
-        <v>-15400</v>
+        <v>-15300</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>48000</v>
+        <v>47700</v>
       </c>
       <c r="E100" s="3">
-        <v>26000</v>
+        <v>25800</v>
       </c>
       <c r="F100" s="3">
-        <v>17700</v>
+        <v>17600</v>
       </c>
       <c r="G100" s="3">
-        <v>84100</v>
+        <v>83500</v>
       </c>
       <c r="H100" s="3">
         <v>9100</v>
       </c>
       <c r="I100" s="3">
-        <v>90800</v>
+        <v>90200</v>
       </c>
       <c r="J100" s="3">
-        <v>28500</v>
+        <v>28300</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2979,10 +2979,10 @@
         <v>-2400</v>
       </c>
       <c r="H101" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="I101" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="J101" s="3">
         <v>-200</v>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="E102" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="F102" s="3">
-        <v>-10600</v>
+        <v>-10500</v>
       </c>
       <c r="G102" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="H102" s="3">
-        <v>-41100</v>
+        <v>-40900</v>
       </c>
       <c r="I102" s="3">
-        <v>63900</v>
+        <v>63500</v>
       </c>
       <c r="J102" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/NVCN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVCN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>NVCN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12100</v>
       </c>
-      <c r="I8" s="3">
-        <v>12600</v>
-      </c>
       <c r="J8" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K8" s="3">
         <v>18300</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E9" s="3">
         <v>600</v>
       </c>
       <c r="F9" s="3">
+        <v>600</v>
+      </c>
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11700</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6700</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E12" s="3">
         <v>25400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14600</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
-        <v>162600</v>
-      </c>
       <c r="I14" s="3">
+        <v>162700</v>
+      </c>
+      <c r="J14" s="3">
         <v>9000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E17" s="3">
         <v>47300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>41100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>48800</v>
       </c>
-      <c r="H17" s="3">
-        <v>204800</v>
-      </c>
       <c r="I17" s="3">
+        <v>204900</v>
+      </c>
+      <c r="J17" s="3">
         <v>49300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>40300</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-44800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-38400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-41300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-41900</v>
       </c>
-      <c r="H18" s="3">
-        <v>-192700</v>
-      </c>
       <c r="I18" s="3">
+        <v>-192800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-36600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-22000</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,74 +1016,81 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E20" s="3">
         <v>8900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-96100</v>
-      </c>
       <c r="G20" s="3">
+        <v>-96200</v>
+      </c>
+      <c r="H20" s="3">
         <v>13300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>82800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-34900</v>
+        <v>-29800</v>
       </c>
       <c r="E21" s="3">
-        <v>-43700</v>
+        <v>-35100</v>
       </c>
       <c r="F21" s="3">
-        <v>-136900</v>
+        <v>-44100</v>
       </c>
       <c r="G21" s="3">
-        <v>-27900</v>
+        <v>-136800</v>
       </c>
       <c r="H21" s="3">
-        <v>-109000</v>
+        <v>-27600</v>
       </c>
       <c r="I21" s="3">
-        <v>-33200</v>
+        <v>-109300</v>
       </c>
       <c r="J21" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-21400</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1064,63 +1103,72 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-44700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-137400</v>
-      </c>
       <c r="G23" s="3">
+        <v>-137500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-28600</v>
       </c>
-      <c r="H23" s="3">
-        <v>-109900</v>
-      </c>
       <c r="I23" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-33800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21900</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36600</v>
       </c>
-      <c r="E26" s="3">
-        <v>-44700</v>
-      </c>
       <c r="F26" s="3">
-        <v>-137500</v>
+        <v>-44800</v>
       </c>
       <c r="G26" s="3">
+        <v>-137600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-29200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-110200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-34000</v>
-      </c>
       <c r="J26" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-21900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-44700</v>
-      </c>
       <c r="F27" s="3">
-        <v>-137500</v>
+        <v>-44800</v>
       </c>
       <c r="G27" s="3">
+        <v>-137600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-29200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-110200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-34000</v>
-      </c>
       <c r="J27" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-21900</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6100</v>
       </c>
-      <c r="F32" s="3">
-        <v>96100</v>
-      </c>
       <c r="G32" s="3">
+        <v>96200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-13300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-82800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36600</v>
       </c>
-      <c r="E33" s="3">
-        <v>-44700</v>
-      </c>
       <c r="F33" s="3">
-        <v>-137500</v>
+        <v>-44800</v>
       </c>
       <c r="G33" s="3">
+        <v>-137600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-29200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-110200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-34000</v>
-      </c>
       <c r="J33" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-21900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36600</v>
       </c>
-      <c r="E35" s="3">
-        <v>-44700</v>
-      </c>
       <c r="F35" s="3">
-        <v>-137500</v>
+        <v>-44800</v>
       </c>
       <c r="G35" s="3">
+        <v>-137600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-29200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-110200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-34000</v>
-      </c>
       <c r="J35" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-21900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1559,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E41" s="3">
         <v>16500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6700</v>
       </c>
-      <c r="F41" s="3">
-        <v>23500</v>
-      </c>
       <c r="G41" s="3">
+        <v>23600</v>
+      </c>
+      <c r="H41" s="3">
         <v>22300</v>
       </c>
-      <c r="H41" s="3">
-        <v>29200</v>
-      </c>
       <c r="I41" s="3">
+        <v>29300</v>
+      </c>
+      <c r="J41" s="3">
         <v>42500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6600</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1515,143 +1604,158 @@
       <c r="F42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>27600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13200</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>89800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E46" s="3">
         <v>20000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>123300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>73300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>22600</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>19</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>19</v>
@@ -1662,36 +1766,42 @@
       <c r="J47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1716,9 +1826,12 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,14 +1886,17 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>13200</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
@@ -1792,14 +1911,17 @@
         <v>600</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E54" s="3">
         <v>22800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>125900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>78000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25900</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,160 +2007,176 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5400</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>144400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E60" s="3">
         <v>9800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>145600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21400</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>19</v>
@@ -2039,9 +2184,12 @@
       <c r="J62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E66" s="3">
         <v>20300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27600</v>
       </c>
-      <c r="G66" s="3">
-        <v>74700</v>
-      </c>
       <c r="H66" s="3">
+        <v>74800</v>
+      </c>
+      <c r="I66" s="3">
         <v>145600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-503400</v>
+        <v>-535400</v>
       </c>
       <c r="E72" s="3">
-        <v>-466900</v>
+        <v>-503600</v>
       </c>
       <c r="F72" s="3">
-        <v>-422100</v>
+        <v>-467100</v>
       </c>
       <c r="G72" s="3">
-        <v>-286200</v>
+        <v>-422300</v>
       </c>
       <c r="H72" s="3">
-        <v>-257000</v>
+        <v>-286300</v>
       </c>
       <c r="I72" s="3">
+        <v>-257100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-146900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-112800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-18400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-46500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-19700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>73900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36600</v>
       </c>
-      <c r="E81" s="3">
-        <v>-44700</v>
-      </c>
       <c r="F81" s="3">
-        <v>-137500</v>
+        <v>-44800</v>
       </c>
       <c r="G81" s="3">
+        <v>-137600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-29200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-110200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-34000</v>
-      </c>
       <c r="J81" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-21900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-30500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-29000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-176600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-50700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10300</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>900</v>
       </c>
-      <c r="G94" s="3">
-        <v>88500</v>
-      </c>
       <c r="H94" s="3">
+        <v>88600</v>
+      </c>
+      <c r="I94" s="3">
         <v>-4300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>9100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15300</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3058,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2852,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E100" s="3">
         <v>47700</v>
       </c>
-      <c r="E100" s="3">
-        <v>25800</v>
-      </c>
       <c r="F100" s="3">
+        <v>25900</v>
+      </c>
+      <c r="G100" s="3">
         <v>17600</v>
       </c>
-      <c r="G100" s="3">
-        <v>83500</v>
-      </c>
       <c r="H100" s="3">
+        <v>83600</v>
+      </c>
+      <c r="I100" s="3">
         <v>9100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>90200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>28300</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-2400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="I101" s="3">
-        <v>-8700</v>
-      </c>
       <c r="J101" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E102" s="3">
         <v>9700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-40900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>63500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NVCN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVCN_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E8" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F8" s="3">
         <v>2700</v>
       </c>
       <c r="G8" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H8" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="I8" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="J8" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="K8" s="3">
         <v>18300</v>
@@ -756,13 +756,13 @@
         <v>500</v>
       </c>
       <c r="H9" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I9" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="J9" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="K9" s="3">
         <v>11700</v>
@@ -774,10 +774,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E10" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F10" s="3">
         <v>2100</v>
@@ -786,13 +786,13 @@
         <v>1800</v>
       </c>
       <c r="H10" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I10" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J10" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K10" s="3">
         <v>6700</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19200</v>
+        <v>19700</v>
       </c>
       <c r="E12" s="3">
-        <v>25400</v>
+        <v>26000</v>
       </c>
       <c r="F12" s="3">
-        <v>24900</v>
+        <v>25500</v>
       </c>
       <c r="G12" s="3">
-        <v>20000</v>
+        <v>20400</v>
       </c>
       <c r="H12" s="3">
-        <v>21800</v>
+        <v>22300</v>
       </c>
       <c r="I12" s="3">
-        <v>24100</v>
+        <v>24700</v>
       </c>
       <c r="J12" s="3">
-        <v>21600</v>
+        <v>22100</v>
       </c>
       <c r="K12" s="3">
         <v>14600</v>
@@ -887,16 +887,16 @@
         <v>1200</v>
       </c>
       <c r="G14" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="H14" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I14" s="3">
-        <v>162700</v>
+        <v>166500</v>
       </c>
       <c r="J14" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="K14" s="3">
         <v>1100</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>42900</v>
+        <v>43900</v>
       </c>
       <c r="E17" s="3">
-        <v>47300</v>
+        <v>48400</v>
       </c>
       <c r="F17" s="3">
-        <v>41100</v>
+        <v>42100</v>
       </c>
       <c r="G17" s="3">
-        <v>43500</v>
+        <v>44600</v>
       </c>
       <c r="H17" s="3">
-        <v>48800</v>
+        <v>49900</v>
       </c>
       <c r="I17" s="3">
-        <v>204900</v>
+        <v>209800</v>
       </c>
       <c r="J17" s="3">
-        <v>49300</v>
+        <v>50500</v>
       </c>
       <c r="K17" s="3">
         <v>40300</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-39600</v>
+        <v>-40600</v>
       </c>
       <c r="E18" s="3">
-        <v>-44800</v>
+        <v>-45900</v>
       </c>
       <c r="F18" s="3">
-        <v>-38400</v>
+        <v>-39300</v>
       </c>
       <c r="G18" s="3">
-        <v>-41300</v>
+        <v>-42300</v>
       </c>
       <c r="H18" s="3">
-        <v>-41900</v>
+        <v>-42900</v>
       </c>
       <c r="I18" s="3">
-        <v>-192800</v>
+        <v>-197300</v>
       </c>
       <c r="J18" s="3">
-        <v>-36600</v>
+        <v>-37500</v>
       </c>
       <c r="K18" s="3">
         <v>-22000</v>
@@ -1023,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="E20" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="F20" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="G20" s="3">
-        <v>-96200</v>
+        <v>-98400</v>
       </c>
       <c r="H20" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="I20" s="3">
-        <v>82800</v>
+        <v>84800</v>
       </c>
       <c r="J20" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-29800</v>
+        <v>-30700</v>
       </c>
       <c r="E21" s="3">
-        <v>-35100</v>
+        <v>-35800</v>
       </c>
       <c r="F21" s="3">
-        <v>-44100</v>
+        <v>-44800</v>
       </c>
       <c r="G21" s="3">
-        <v>-136800</v>
+        <v>-140200</v>
       </c>
       <c r="H21" s="3">
-        <v>-27600</v>
+        <v>-28600</v>
       </c>
       <c r="I21" s="3">
-        <v>-109300</v>
+        <v>-111600</v>
       </c>
       <c r="J21" s="3">
-        <v>-33400</v>
+        <v>-34000</v>
       </c>
       <c r="K21" s="3">
         <v>-21400</v>
@@ -1086,7 +1086,7 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1113,25 +1113,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-31600</v>
+        <v>-32400</v>
       </c>
       <c r="E23" s="3">
-        <v>-37200</v>
+        <v>-38100</v>
       </c>
       <c r="F23" s="3">
-        <v>-44700</v>
+        <v>-45800</v>
       </c>
       <c r="G23" s="3">
-        <v>-137500</v>
+        <v>-140700</v>
       </c>
       <c r="H23" s="3">
-        <v>-28600</v>
+        <v>-29300</v>
       </c>
       <c r="I23" s="3">
-        <v>-110000</v>
+        <v>-112600</v>
       </c>
       <c r="J23" s="3">
-        <v>-33800</v>
+        <v>-34600</v>
       </c>
       <c r="K23" s="3">
         <v>-21900</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-31700</v>
+        <v>-32500</v>
       </c>
       <c r="E26" s="3">
-        <v>-36600</v>
+        <v>-37400</v>
       </c>
       <c r="F26" s="3">
-        <v>-44800</v>
+        <v>-45800</v>
       </c>
       <c r="G26" s="3">
-        <v>-137600</v>
+        <v>-140900</v>
       </c>
       <c r="H26" s="3">
-        <v>-29200</v>
+        <v>-29900</v>
       </c>
       <c r="I26" s="3">
-        <v>-110200</v>
+        <v>-112800</v>
       </c>
       <c r="J26" s="3">
-        <v>-34100</v>
+        <v>-34900</v>
       </c>
       <c r="K26" s="3">
         <v>-21900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-31700</v>
+        <v>-32500</v>
       </c>
       <c r="E27" s="3">
-        <v>-36600</v>
+        <v>-37400</v>
       </c>
       <c r="F27" s="3">
-        <v>-44800</v>
+        <v>-45800</v>
       </c>
       <c r="G27" s="3">
-        <v>-137600</v>
+        <v>-140900</v>
       </c>
       <c r="H27" s="3">
-        <v>-29200</v>
+        <v>-29900</v>
       </c>
       <c r="I27" s="3">
-        <v>-110200</v>
+        <v>-112800</v>
       </c>
       <c r="J27" s="3">
-        <v>-34100</v>
+        <v>-34900</v>
       </c>
       <c r="K27" s="3">
         <v>-21900</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8800</v>
+        <v>-9100</v>
       </c>
       <c r="E32" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="F32" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="G32" s="3">
-        <v>96200</v>
+        <v>98400</v>
       </c>
       <c r="H32" s="3">
-        <v>-13300</v>
+        <v>-13600</v>
       </c>
       <c r="I32" s="3">
-        <v>-82800</v>
+        <v>-84800</v>
       </c>
       <c r="J32" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-31700</v>
+        <v>-32500</v>
       </c>
       <c r="E33" s="3">
-        <v>-36600</v>
+        <v>-37400</v>
       </c>
       <c r="F33" s="3">
-        <v>-44800</v>
+        <v>-45800</v>
       </c>
       <c r="G33" s="3">
-        <v>-137600</v>
+        <v>-140900</v>
       </c>
       <c r="H33" s="3">
-        <v>-29200</v>
+        <v>-29900</v>
       </c>
       <c r="I33" s="3">
-        <v>-110200</v>
+        <v>-112800</v>
       </c>
       <c r="J33" s="3">
-        <v>-34100</v>
+        <v>-34900</v>
       </c>
       <c r="K33" s="3">
         <v>-21900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-31700</v>
+        <v>-32500</v>
       </c>
       <c r="E35" s="3">
-        <v>-36600</v>
+        <v>-37400</v>
       </c>
       <c r="F35" s="3">
-        <v>-44800</v>
+        <v>-45800</v>
       </c>
       <c r="G35" s="3">
-        <v>-137600</v>
+        <v>-140900</v>
       </c>
       <c r="H35" s="3">
-        <v>-29200</v>
+        <v>-29900</v>
       </c>
       <c r="I35" s="3">
-        <v>-110200</v>
+        <v>-112800</v>
       </c>
       <c r="J35" s="3">
-        <v>-34100</v>
+        <v>-34900</v>
       </c>
       <c r="K35" s="3">
         <v>-21900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>65700</v>
+        <v>67200</v>
       </c>
       <c r="E41" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="F41" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="G41" s="3">
-        <v>23600</v>
+        <v>24100</v>
       </c>
       <c r="H41" s="3">
-        <v>22300</v>
+        <v>22800</v>
       </c>
       <c r="I41" s="3">
-        <v>29300</v>
+        <v>29900</v>
       </c>
       <c r="J41" s="3">
-        <v>42500</v>
+        <v>43500</v>
       </c>
       <c r="K41" s="3">
         <v>6600</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>27600</v>
+        <v>28300</v>
       </c>
       <c r="K42" s="3">
         <v>13200</v>
@@ -1641,10 +1641,10 @@
         <v>1700</v>
       </c>
       <c r="I43" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J43" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K43" s="3">
         <v>3800</v>
@@ -1701,7 +1701,7 @@
         <v>1000</v>
       </c>
       <c r="I45" s="3">
-        <v>89800</v>
+        <v>92000</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>70400</v>
+        <v>72000</v>
       </c>
       <c r="E46" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="F46" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="G46" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="H46" s="3">
-        <v>25500</v>
+        <v>26100</v>
       </c>
       <c r="I46" s="3">
-        <v>123300</v>
+        <v>126200</v>
       </c>
       <c r="J46" s="3">
-        <v>73300</v>
+        <v>75000</v>
       </c>
       <c r="K46" s="3">
         <v>22600</v>
@@ -1785,16 +1785,16 @@
         <v>1900</v>
       </c>
       <c r="G48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
-        <v>2000</v>
-      </c>
       <c r="J48" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="K48" s="3">
         <v>3400</v>
@@ -1896,7 +1896,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>84400</v>
+        <v>86400</v>
       </c>
       <c r="E54" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="F54" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="G54" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="H54" s="3">
-        <v>28300</v>
+        <v>29000</v>
       </c>
       <c r="I54" s="3">
-        <v>125900</v>
+        <v>128900</v>
       </c>
       <c r="J54" s="3">
-        <v>78000</v>
+        <v>79900</v>
       </c>
       <c r="K54" s="3">
         <v>25900</v>
@@ -2014,16 +2014,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E57" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="F57" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G57" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H57" s="3">
         <v>1600</v>
@@ -2032,7 +2032,7 @@
         <v>1200</v>
       </c>
       <c r="J57" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K57" s="3">
         <v>2300</v>
@@ -2044,19 +2044,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
       </c>
       <c r="F58" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="G58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H58" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>19</v>
@@ -2074,22 +2074,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E59" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
-        <v>4700</v>
-      </c>
       <c r="H59" s="3">
-        <v>26200</v>
+        <v>26900</v>
       </c>
       <c r="I59" s="3">
-        <v>144400</v>
+        <v>147800</v>
       </c>
       <c r="J59" s="3">
         <v>900</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="E60" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="F60" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="G60" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="H60" s="3">
-        <v>33300</v>
+        <v>34000</v>
       </c>
       <c r="I60" s="3">
-        <v>145600</v>
+        <v>149100</v>
       </c>
       <c r="J60" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K60" s="3">
         <v>2800</v>
@@ -2134,19 +2134,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="E61" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="F61" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="G61" s="3">
-        <v>16800</v>
+        <v>17200</v>
       </c>
       <c r="H61" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>1500</v>
       </c>
       <c r="G62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H62" s="3">
-        <v>21400</v>
+        <v>22000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>19</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="E66" s="3">
-        <v>20300</v>
+        <v>20700</v>
       </c>
       <c r="F66" s="3">
-        <v>31300</v>
+        <v>32000</v>
       </c>
       <c r="G66" s="3">
-        <v>27600</v>
+        <v>28300</v>
       </c>
       <c r="H66" s="3">
-        <v>74800</v>
+        <v>76500</v>
       </c>
       <c r="I66" s="3">
-        <v>145600</v>
+        <v>149100</v>
       </c>
       <c r="J66" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K66" s="3">
         <v>3000</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-535400</v>
+        <v>-548000</v>
       </c>
       <c r="E72" s="3">
-        <v>-503600</v>
+        <v>-515500</v>
       </c>
       <c r="F72" s="3">
-        <v>-467100</v>
+        <v>-478100</v>
       </c>
       <c r="G72" s="3">
-        <v>-422300</v>
+        <v>-432300</v>
       </c>
       <c r="H72" s="3">
-        <v>-286300</v>
+        <v>-293100</v>
       </c>
       <c r="I72" s="3">
-        <v>-257100</v>
+        <v>-263200</v>
       </c>
       <c r="J72" s="3">
-        <v>-146900</v>
+        <v>-150400</v>
       </c>
       <c r="K72" s="3">
         <v>-112800</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>66600</v>
+        <v>68100</v>
       </c>
       <c r="E76" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F76" s="3">
-        <v>-18400</v>
+        <v>-18800</v>
       </c>
       <c r="G76" s="3">
-        <v>-10600</v>
+        <v>-10900</v>
       </c>
       <c r="H76" s="3">
-        <v>-46500</v>
+        <v>-47600</v>
       </c>
       <c r="I76" s="3">
-        <v>-19700</v>
+        <v>-20200</v>
       </c>
       <c r="J76" s="3">
-        <v>73900</v>
+        <v>75600</v>
       </c>
       <c r="K76" s="3">
         <v>23000</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-31700</v>
+        <v>-32500</v>
       </c>
       <c r="E81" s="3">
-        <v>-36600</v>
+        <v>-37400</v>
       </c>
       <c r="F81" s="3">
-        <v>-44800</v>
+        <v>-45800</v>
       </c>
       <c r="G81" s="3">
-        <v>-137600</v>
+        <v>-140900</v>
       </c>
       <c r="H81" s="3">
-        <v>-29200</v>
+        <v>-29900</v>
       </c>
       <c r="I81" s="3">
-        <v>-110200</v>
+        <v>-112800</v>
       </c>
       <c r="J81" s="3">
-        <v>-34100</v>
+        <v>-34900</v>
       </c>
       <c r="K81" s="3">
         <v>-21900</v>
@@ -2725,7 +2725,7 @@
         <v>1000</v>
       </c>
       <c r="J83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-34500</v>
+        <v>-35400</v>
       </c>
       <c r="E89" s="3">
-        <v>-37500</v>
+        <v>-38400</v>
       </c>
       <c r="F89" s="3">
-        <v>-30500</v>
+        <v>-31300</v>
       </c>
       <c r="G89" s="3">
-        <v>-29000</v>
+        <v>-29700</v>
       </c>
       <c r="H89" s="3">
-        <v>-176600</v>
+        <v>-180800</v>
       </c>
       <c r="I89" s="3">
-        <v>-50700</v>
+        <v>-51900</v>
       </c>
       <c r="J89" s="3">
-        <v>-27100</v>
+        <v>-27800</v>
       </c>
       <c r="K89" s="3">
         <v>-10300</v>
@@ -2943,13 +2943,13 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I91" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="K91" s="3">
         <v>-1400</v>
@@ -3024,7 +3024,7 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F94" s="3">
         <v>-300</v>
@@ -3033,13 +3033,13 @@
         <v>900</v>
       </c>
       <c r="H94" s="3">
-        <v>88600</v>
+        <v>90700</v>
       </c>
       <c r="I94" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="J94" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="K94" s="3">
         <v>-15300</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>83900</v>
+        <v>85900</v>
       </c>
       <c r="E100" s="3">
-        <v>47700</v>
+        <v>48800</v>
       </c>
       <c r="F100" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="G100" s="3">
-        <v>17600</v>
+        <v>18000</v>
       </c>
       <c r="H100" s="3">
-        <v>83600</v>
+        <v>85500</v>
       </c>
       <c r="I100" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="J100" s="3">
-        <v>90200</v>
+        <v>92400</v>
       </c>
       <c r="K100" s="3">
         <v>28300</v>
@@ -3227,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I101" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="J101" s="3">
-        <v>-8800</v>
+        <v>-9000</v>
       </c>
       <c r="K101" s="3">
         <v>-200</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>49200</v>
+        <v>50400</v>
       </c>
       <c r="E102" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="F102" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="G102" s="3">
-        <v>-10500</v>
+        <v>-10800</v>
       </c>
       <c r="H102" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="I102" s="3">
-        <v>-40900</v>
+        <v>-41800</v>
       </c>
       <c r="J102" s="3">
-        <v>63500</v>
+        <v>65000</v>
       </c>
       <c r="K102" s="3">
         <v>2500</v>

--- a/AAII_Financials/Yearly/NVCN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVCN_YR_FIN.xlsx
@@ -717,7 +717,7 @@
         <v>3300</v>
       </c>
       <c r="E8" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F8" s="3">
         <v>2700</v>
@@ -729,10 +729,10 @@
         <v>7000</v>
       </c>
       <c r="I8" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="J8" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="K8" s="3">
         <v>18300</v>
@@ -759,10 +759,10 @@
         <v>4500</v>
       </c>
       <c r="I9" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="J9" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="K9" s="3">
         <v>11700</v>
@@ -789,7 +789,7 @@
         <v>2500</v>
       </c>
       <c r="I10" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J10" s="3">
         <v>3900</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19700</v>
+        <v>19500</v>
       </c>
       <c r="E12" s="3">
-        <v>26000</v>
+        <v>25700</v>
       </c>
       <c r="F12" s="3">
-        <v>25500</v>
+        <v>25300</v>
       </c>
       <c r="G12" s="3">
-        <v>20400</v>
+        <v>20300</v>
       </c>
       <c r="H12" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="I12" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="J12" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="K12" s="3">
         <v>14600</v>
@@ -887,16 +887,16 @@
         <v>1200</v>
       </c>
       <c r="G14" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="H14" s="3">
         <v>4100</v>
       </c>
       <c r="I14" s="3">
-        <v>166500</v>
+        <v>165000</v>
       </c>
       <c r="J14" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="K14" s="3">
         <v>1100</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>43900</v>
+        <v>43500</v>
       </c>
       <c r="E17" s="3">
-        <v>48400</v>
+        <v>48000</v>
       </c>
       <c r="F17" s="3">
-        <v>42100</v>
+        <v>41700</v>
       </c>
       <c r="G17" s="3">
-        <v>44600</v>
+        <v>44100</v>
       </c>
       <c r="H17" s="3">
-        <v>49900</v>
+        <v>49500</v>
       </c>
       <c r="I17" s="3">
-        <v>209800</v>
+        <v>207800</v>
       </c>
       <c r="J17" s="3">
-        <v>50500</v>
+        <v>50000</v>
       </c>
       <c r="K17" s="3">
         <v>40300</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-40600</v>
+        <v>-40200</v>
       </c>
       <c r="E18" s="3">
-        <v>-45900</v>
+        <v>-45500</v>
       </c>
       <c r="F18" s="3">
-        <v>-39300</v>
+        <v>-39000</v>
       </c>
       <c r="G18" s="3">
-        <v>-42300</v>
+        <v>-41900</v>
       </c>
       <c r="H18" s="3">
-        <v>-42900</v>
+        <v>-42500</v>
       </c>
       <c r="I18" s="3">
-        <v>-197300</v>
+        <v>-195500</v>
       </c>
       <c r="J18" s="3">
-        <v>-37500</v>
+        <v>-37200</v>
       </c>
       <c r="K18" s="3">
         <v>-22000</v>
@@ -1023,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="E20" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F20" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="G20" s="3">
-        <v>-98400</v>
+        <v>-97500</v>
       </c>
       <c r="H20" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="I20" s="3">
-        <v>84800</v>
+        <v>84000</v>
       </c>
       <c r="J20" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-30700</v>
+        <v>-30400</v>
       </c>
       <c r="E21" s="3">
-        <v>-35800</v>
+        <v>-35400</v>
       </c>
       <c r="F21" s="3">
-        <v>-44800</v>
+        <v>-44400</v>
       </c>
       <c r="G21" s="3">
-        <v>-140200</v>
+        <v>-138900</v>
       </c>
       <c r="H21" s="3">
-        <v>-28600</v>
+        <v>-28300</v>
       </c>
       <c r="I21" s="3">
-        <v>-111600</v>
+        <v>-110500</v>
       </c>
       <c r="J21" s="3">
-        <v>-34000</v>
+        <v>-33700</v>
       </c>
       <c r="K21" s="3">
         <v>-21400</v>
@@ -1086,7 +1086,7 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1113,25 +1113,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-32400</v>
+        <v>-32100</v>
       </c>
       <c r="E23" s="3">
-        <v>-38100</v>
+        <v>-37800</v>
       </c>
       <c r="F23" s="3">
-        <v>-45800</v>
+        <v>-45400</v>
       </c>
       <c r="G23" s="3">
-        <v>-140700</v>
+        <v>-139400</v>
       </c>
       <c r="H23" s="3">
-        <v>-29300</v>
+        <v>-29000</v>
       </c>
       <c r="I23" s="3">
-        <v>-112600</v>
+        <v>-111500</v>
       </c>
       <c r="J23" s="3">
-        <v>-34600</v>
+        <v>-34300</v>
       </c>
       <c r="K23" s="3">
         <v>-21900</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-32500</v>
+        <v>-32200</v>
       </c>
       <c r="E26" s="3">
-        <v>-37400</v>
+        <v>-37100</v>
       </c>
       <c r="F26" s="3">
-        <v>-45800</v>
+        <v>-45400</v>
       </c>
       <c r="G26" s="3">
-        <v>-140900</v>
+        <v>-139600</v>
       </c>
       <c r="H26" s="3">
-        <v>-29900</v>
+        <v>-29600</v>
       </c>
       <c r="I26" s="3">
-        <v>-112800</v>
+        <v>-111800</v>
       </c>
       <c r="J26" s="3">
-        <v>-34900</v>
+        <v>-34500</v>
       </c>
       <c r="K26" s="3">
         <v>-21900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-32500</v>
+        <v>-32200</v>
       </c>
       <c r="E27" s="3">
-        <v>-37400</v>
+        <v>-37100</v>
       </c>
       <c r="F27" s="3">
-        <v>-45800</v>
+        <v>-45400</v>
       </c>
       <c r="G27" s="3">
-        <v>-140900</v>
+        <v>-139600</v>
       </c>
       <c r="H27" s="3">
-        <v>-29900</v>
+        <v>-29600</v>
       </c>
       <c r="I27" s="3">
-        <v>-112800</v>
+        <v>-111800</v>
       </c>
       <c r="J27" s="3">
-        <v>-34900</v>
+        <v>-34500</v>
       </c>
       <c r="K27" s="3">
         <v>-21900</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="E32" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="F32" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G32" s="3">
-        <v>98400</v>
+        <v>97500</v>
       </c>
       <c r="H32" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="I32" s="3">
-        <v>-84800</v>
+        <v>-84000</v>
       </c>
       <c r="J32" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-32500</v>
+        <v>-32200</v>
       </c>
       <c r="E33" s="3">
-        <v>-37400</v>
+        <v>-37100</v>
       </c>
       <c r="F33" s="3">
-        <v>-45800</v>
+        <v>-45400</v>
       </c>
       <c r="G33" s="3">
-        <v>-140900</v>
+        <v>-139600</v>
       </c>
       <c r="H33" s="3">
-        <v>-29900</v>
+        <v>-29600</v>
       </c>
       <c r="I33" s="3">
-        <v>-112800</v>
+        <v>-111800</v>
       </c>
       <c r="J33" s="3">
-        <v>-34900</v>
+        <v>-34500</v>
       </c>
       <c r="K33" s="3">
         <v>-21900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-32500</v>
+        <v>-32200</v>
       </c>
       <c r="E35" s="3">
-        <v>-37400</v>
+        <v>-37100</v>
       </c>
       <c r="F35" s="3">
-        <v>-45800</v>
+        <v>-45400</v>
       </c>
       <c r="G35" s="3">
-        <v>-140900</v>
+        <v>-139600</v>
       </c>
       <c r="H35" s="3">
-        <v>-29900</v>
+        <v>-29600</v>
       </c>
       <c r="I35" s="3">
-        <v>-112800</v>
+        <v>-111800</v>
       </c>
       <c r="J35" s="3">
-        <v>-34900</v>
+        <v>-34500</v>
       </c>
       <c r="K35" s="3">
         <v>-21900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>67200</v>
+        <v>66600</v>
       </c>
       <c r="E41" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="F41" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="G41" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="H41" s="3">
-        <v>22800</v>
+        <v>22600</v>
       </c>
       <c r="I41" s="3">
-        <v>29900</v>
+        <v>29700</v>
       </c>
       <c r="J41" s="3">
-        <v>43500</v>
+        <v>43100</v>
       </c>
       <c r="K41" s="3">
         <v>6600</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>28300</v>
+        <v>28000</v>
       </c>
       <c r="K42" s="3">
         <v>13200</v>
@@ -1641,10 +1641,10 @@
         <v>1700</v>
       </c>
       <c r="I43" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J43" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K43" s="3">
         <v>3800</v>
@@ -1701,7 +1701,7 @@
         <v>1000</v>
       </c>
       <c r="I45" s="3">
-        <v>92000</v>
+        <v>91100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>72000</v>
+        <v>71400</v>
       </c>
       <c r="E46" s="3">
-        <v>20500</v>
+        <v>20300</v>
       </c>
       <c r="F46" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="G46" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="H46" s="3">
-        <v>26100</v>
+        <v>25900</v>
       </c>
       <c r="I46" s="3">
-        <v>126200</v>
+        <v>125100</v>
       </c>
       <c r="J46" s="3">
-        <v>75000</v>
+        <v>74300</v>
       </c>
       <c r="K46" s="3">
         <v>22600</v>
@@ -1791,10 +1791,10 @@
         <v>2200</v>
       </c>
       <c r="I48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J48" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="K48" s="3">
         <v>3400</v>
@@ -1896,7 +1896,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>86400</v>
+        <v>91100</v>
       </c>
       <c r="E54" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="F54" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="G54" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="H54" s="3">
-        <v>29000</v>
+        <v>28700</v>
       </c>
       <c r="I54" s="3">
-        <v>128900</v>
+        <v>127700</v>
       </c>
       <c r="J54" s="3">
-        <v>79900</v>
+        <v>79100</v>
       </c>
       <c r="K54" s="3">
         <v>25900</v>
@@ -2053,10 +2053,10 @@
         <v>9000</v>
       </c>
       <c r="G58" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H58" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>19</v>
@@ -2074,22 +2074,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E59" s="3">
         <v>4600</v>
       </c>
       <c r="F59" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G59" s="3">
         <v>4800</v>
       </c>
       <c r="H59" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="I59" s="3">
-        <v>147800</v>
+        <v>146500</v>
       </c>
       <c r="J59" s="3">
         <v>900</v>
@@ -2104,22 +2104,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="E60" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="F60" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="G60" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="H60" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="I60" s="3">
-        <v>149100</v>
+        <v>147700</v>
       </c>
       <c r="J60" s="3">
         <v>4200</v>
@@ -2134,19 +2134,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F61" s="3">
         <v>11200</v>
       </c>
-      <c r="E61" s="3">
-        <v>10700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>11300</v>
-      </c>
       <c r="G61" s="3">
-        <v>17200</v>
+        <v>17100</v>
       </c>
       <c r="H61" s="3">
-        <v>20500</v>
+        <v>20400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>1500</v>
       </c>
       <c r="G62" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="H62" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>19</v>
@@ -2284,22 +2284,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18300</v>
+        <v>23600</v>
       </c>
       <c r="E66" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="F66" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="G66" s="3">
-        <v>28300</v>
+        <v>28000</v>
       </c>
       <c r="H66" s="3">
-        <v>76500</v>
+        <v>75800</v>
       </c>
       <c r="I66" s="3">
-        <v>149100</v>
+        <v>147700</v>
       </c>
       <c r="J66" s="3">
         <v>4200</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-548000</v>
+        <v>-543000</v>
       </c>
       <c r="E72" s="3">
-        <v>-515500</v>
+        <v>-510800</v>
       </c>
       <c r="F72" s="3">
-        <v>-478100</v>
+        <v>-473700</v>
       </c>
       <c r="G72" s="3">
-        <v>-432300</v>
+        <v>-428300</v>
       </c>
       <c r="H72" s="3">
-        <v>-293100</v>
+        <v>-290400</v>
       </c>
       <c r="I72" s="3">
-        <v>-263200</v>
+        <v>-260800</v>
       </c>
       <c r="J72" s="3">
-        <v>-150400</v>
+        <v>-149000</v>
       </c>
       <c r="K72" s="3">
         <v>-112800</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68100</v>
+        <v>67500</v>
       </c>
       <c r="E76" s="3">
         <v>2600</v>
       </c>
       <c r="F76" s="3">
-        <v>-18800</v>
+        <v>-18700</v>
       </c>
       <c r="G76" s="3">
-        <v>-10900</v>
+        <v>-10800</v>
       </c>
       <c r="H76" s="3">
-        <v>-47600</v>
+        <v>-47100</v>
       </c>
       <c r="I76" s="3">
-        <v>-20200</v>
+        <v>-20000</v>
       </c>
       <c r="J76" s="3">
-        <v>75600</v>
+        <v>75000</v>
       </c>
       <c r="K76" s="3">
         <v>23000</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-32500</v>
+        <v>-32200</v>
       </c>
       <c r="E81" s="3">
-        <v>-37400</v>
+        <v>-37100</v>
       </c>
       <c r="F81" s="3">
-        <v>-45800</v>
+        <v>-45400</v>
       </c>
       <c r="G81" s="3">
-        <v>-140900</v>
+        <v>-139600</v>
       </c>
       <c r="H81" s="3">
-        <v>-29900</v>
+        <v>-29600</v>
       </c>
       <c r="I81" s="3">
-        <v>-112800</v>
+        <v>-111800</v>
       </c>
       <c r="J81" s="3">
-        <v>-34900</v>
+        <v>-34500</v>
       </c>
       <c r="K81" s="3">
         <v>-21900</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-35400</v>
+        <v>-35000</v>
       </c>
       <c r="E89" s="3">
-        <v>-38400</v>
+        <v>-38100</v>
       </c>
       <c r="F89" s="3">
-        <v>-31300</v>
+        <v>-31000</v>
       </c>
       <c r="G89" s="3">
-        <v>-29700</v>
+        <v>-29500</v>
       </c>
       <c r="H89" s="3">
-        <v>-180800</v>
+        <v>-179100</v>
       </c>
       <c r="I89" s="3">
-        <v>-51900</v>
+        <v>-51400</v>
       </c>
       <c r="J89" s="3">
-        <v>-27800</v>
+        <v>-27500</v>
       </c>
       <c r="K89" s="3">
         <v>-10300</v>
@@ -2946,7 +2946,7 @@
         <v>-700</v>
       </c>
       <c r="I91" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="J91" s="3">
         <v>-2800</v>
@@ -3033,13 +3033,13 @@
         <v>900</v>
       </c>
       <c r="H94" s="3">
-        <v>90700</v>
+        <v>89800</v>
       </c>
       <c r="I94" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="J94" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="K94" s="3">
         <v>-15300</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>85900</v>
+        <v>85100</v>
       </c>
       <c r="E100" s="3">
-        <v>48800</v>
+        <v>48400</v>
       </c>
       <c r="F100" s="3">
-        <v>26500</v>
+        <v>26200</v>
       </c>
       <c r="G100" s="3">
-        <v>18000</v>
+        <v>17900</v>
       </c>
       <c r="H100" s="3">
-        <v>85500</v>
+        <v>84800</v>
       </c>
       <c r="I100" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="J100" s="3">
-        <v>92400</v>
+        <v>91500</v>
       </c>
       <c r="K100" s="3">
         <v>28300</v>
@@ -3230,10 +3230,10 @@
         <v>-2500</v>
       </c>
       <c r="I101" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="J101" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="K101" s="3">
         <v>-200</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>50400</v>
+        <v>49900</v>
       </c>
       <c r="E102" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="F102" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="G102" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="H102" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="I102" s="3">
-        <v>-41800</v>
+        <v>-41400</v>
       </c>
       <c r="J102" s="3">
-        <v>65000</v>
+        <v>64400</v>
       </c>
       <c r="K102" s="3">
         <v>2500</v>

--- a/AAII_Financials/Yearly/NVCN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVCN_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E8" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F8" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G8" s="3">
         <v>2300</v>
       </c>
       <c r="H8" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="I8" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="J8" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="K8" s="3">
         <v>18300</v>
@@ -756,13 +756,13 @@
         <v>500</v>
       </c>
       <c r="H9" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I9" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J9" s="3">
         <v>9200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>9000</v>
       </c>
       <c r="K9" s="3">
         <v>11700</v>
@@ -774,13 +774,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E10" s="3">
         <v>2000</v>
       </c>
       <c r="F10" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G10" s="3">
         <v>1800</v>
@@ -789,10 +789,10 @@
         <v>2500</v>
       </c>
       <c r="I10" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J10" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K10" s="3">
         <v>6700</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19500</v>
+        <v>20100</v>
       </c>
       <c r="E12" s="3">
-        <v>25700</v>
+        <v>26500</v>
       </c>
       <c r="F12" s="3">
-        <v>25300</v>
+        <v>26100</v>
       </c>
       <c r="G12" s="3">
-        <v>20300</v>
+        <v>20900</v>
       </c>
       <c r="H12" s="3">
-        <v>22100</v>
+        <v>22800</v>
       </c>
       <c r="I12" s="3">
-        <v>24500</v>
+        <v>25200</v>
       </c>
       <c r="J12" s="3">
-        <v>21900</v>
+        <v>22500</v>
       </c>
       <c r="K12" s="3">
         <v>14600</v>
@@ -878,7 +878,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E14" s="3">
         <v>800</v>
@@ -887,16 +887,16 @@
         <v>1200</v>
       </c>
       <c r="G14" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="H14" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="I14" s="3">
-        <v>165000</v>
+        <v>170000</v>
       </c>
       <c r="J14" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="K14" s="3">
         <v>1100</v>
@@ -914,7 +914,7 @@
         <v>1000</v>
       </c>
       <c r="F15" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>43500</v>
+        <v>44800</v>
       </c>
       <c r="E17" s="3">
-        <v>48000</v>
+        <v>49400</v>
       </c>
       <c r="F17" s="3">
-        <v>41700</v>
+        <v>42900</v>
       </c>
       <c r="G17" s="3">
-        <v>44100</v>
+        <v>45500</v>
       </c>
       <c r="H17" s="3">
-        <v>49500</v>
+        <v>51000</v>
       </c>
       <c r="I17" s="3">
-        <v>207800</v>
+        <v>214200</v>
       </c>
       <c r="J17" s="3">
-        <v>50000</v>
+        <v>51500</v>
       </c>
       <c r="K17" s="3">
         <v>40300</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-40200</v>
       </c>
-      <c r="E18" s="3">
-        <v>-45500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-39000</v>
-      </c>
       <c r="G18" s="3">
-        <v>-41900</v>
+        <v>-43200</v>
       </c>
       <c r="H18" s="3">
-        <v>-42500</v>
+        <v>-43800</v>
       </c>
       <c r="I18" s="3">
-        <v>-195500</v>
+        <v>-201500</v>
       </c>
       <c r="J18" s="3">
-        <v>-37200</v>
+        <v>-38300</v>
       </c>
       <c r="K18" s="3">
         <v>-22000</v>
@@ -1023,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="E20" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="F20" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="G20" s="3">
-        <v>-97500</v>
+        <v>-100500</v>
       </c>
       <c r="H20" s="3">
-        <v>13500</v>
+        <v>13900</v>
       </c>
       <c r="I20" s="3">
-        <v>84000</v>
+        <v>86600</v>
       </c>
       <c r="J20" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-30400</v>
+        <v>-31300</v>
       </c>
       <c r="E21" s="3">
-        <v>-35400</v>
+        <v>-36500</v>
       </c>
       <c r="F21" s="3">
-        <v>-44400</v>
+        <v>-45700</v>
       </c>
       <c r="G21" s="3">
-        <v>-138900</v>
+        <v>-143200</v>
       </c>
       <c r="H21" s="3">
-        <v>-28300</v>
+        <v>-29100</v>
       </c>
       <c r="I21" s="3">
-        <v>-110500</v>
+        <v>-113900</v>
       </c>
       <c r="J21" s="3">
-        <v>-33700</v>
+        <v>-34700</v>
       </c>
       <c r="K21" s="3">
         <v>-21400</v>
@@ -1086,7 +1086,7 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1113,25 +1113,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-32100</v>
+        <v>-33000</v>
       </c>
       <c r="E23" s="3">
-        <v>-37800</v>
+        <v>-38900</v>
       </c>
       <c r="F23" s="3">
-        <v>-45400</v>
+        <v>-46700</v>
       </c>
       <c r="G23" s="3">
-        <v>-139400</v>
+        <v>-143700</v>
       </c>
       <c r="H23" s="3">
-        <v>-29000</v>
+        <v>-29900</v>
       </c>
       <c r="I23" s="3">
-        <v>-111500</v>
+        <v>-114900</v>
       </c>
       <c r="J23" s="3">
-        <v>-34300</v>
+        <v>-35400</v>
       </c>
       <c r="K23" s="3">
         <v>-21900</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-32200</v>
+        <v>-33100</v>
       </c>
       <c r="E26" s="3">
-        <v>-37100</v>
+        <v>-38200</v>
       </c>
       <c r="F26" s="3">
-        <v>-45400</v>
+        <v>-46800</v>
       </c>
       <c r="G26" s="3">
-        <v>-139600</v>
+        <v>-143800</v>
       </c>
       <c r="H26" s="3">
-        <v>-29600</v>
+        <v>-30500</v>
       </c>
       <c r="I26" s="3">
-        <v>-111800</v>
+        <v>-115200</v>
       </c>
       <c r="J26" s="3">
-        <v>-34500</v>
+        <v>-35600</v>
       </c>
       <c r="K26" s="3">
         <v>-21900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-32200</v>
+        <v>-33100</v>
       </c>
       <c r="E27" s="3">
-        <v>-37100</v>
+        <v>-38200</v>
       </c>
       <c r="F27" s="3">
-        <v>-45400</v>
+        <v>-46800</v>
       </c>
       <c r="G27" s="3">
-        <v>-139600</v>
+        <v>-143800</v>
       </c>
       <c r="H27" s="3">
-        <v>-29600</v>
+        <v>-30500</v>
       </c>
       <c r="I27" s="3">
-        <v>-111800</v>
+        <v>-115200</v>
       </c>
       <c r="J27" s="3">
-        <v>-34500</v>
+        <v>-35600</v>
       </c>
       <c r="K27" s="3">
         <v>-21900</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="E32" s="3">
-        <v>-9000</v>
+        <v>-9300</v>
       </c>
       <c r="F32" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="G32" s="3">
-        <v>97500</v>
+        <v>100500</v>
       </c>
       <c r="H32" s="3">
-        <v>-13500</v>
+        <v>-13900</v>
       </c>
       <c r="I32" s="3">
-        <v>-84000</v>
+        <v>-86600</v>
       </c>
       <c r="J32" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-32200</v>
+        <v>-33100</v>
       </c>
       <c r="E33" s="3">
-        <v>-37100</v>
+        <v>-38200</v>
       </c>
       <c r="F33" s="3">
-        <v>-45400</v>
+        <v>-46800</v>
       </c>
       <c r="G33" s="3">
-        <v>-139600</v>
+        <v>-143800</v>
       </c>
       <c r="H33" s="3">
-        <v>-29600</v>
+        <v>-30500</v>
       </c>
       <c r="I33" s="3">
-        <v>-111800</v>
+        <v>-115200</v>
       </c>
       <c r="J33" s="3">
-        <v>-34500</v>
+        <v>-35600</v>
       </c>
       <c r="K33" s="3">
         <v>-21900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-32200</v>
+        <v>-33100</v>
       </c>
       <c r="E35" s="3">
-        <v>-37100</v>
+        <v>-38200</v>
       </c>
       <c r="F35" s="3">
-        <v>-45400</v>
+        <v>-46800</v>
       </c>
       <c r="G35" s="3">
-        <v>-139600</v>
+        <v>-143800</v>
       </c>
       <c r="H35" s="3">
-        <v>-29600</v>
+        <v>-30500</v>
       </c>
       <c r="I35" s="3">
-        <v>-111800</v>
+        <v>-115200</v>
       </c>
       <c r="J35" s="3">
-        <v>-34500</v>
+        <v>-35600</v>
       </c>
       <c r="K35" s="3">
         <v>-21900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>66600</v>
+        <v>68600</v>
       </c>
       <c r="E41" s="3">
-        <v>16700</v>
+        <v>17200</v>
       </c>
       <c r="F41" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="G41" s="3">
-        <v>23900</v>
+        <v>24600</v>
       </c>
       <c r="H41" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="I41" s="3">
-        <v>29700</v>
+        <v>30600</v>
       </c>
       <c r="J41" s="3">
-        <v>43100</v>
+        <v>44400</v>
       </c>
       <c r="K41" s="3">
         <v>6600</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>28000</v>
+        <v>28900</v>
       </c>
       <c r="K42" s="3">
         <v>13200</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E43" s="3">
         <v>1400</v>
       </c>
       <c r="F43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G43" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H43" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I43" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="J43" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K43" s="3">
         <v>3800</v>
@@ -1656,7 +1656,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E44" s="3">
         <v>1100</v>
@@ -1689,19 +1689,19 @@
         <v>1000</v>
       </c>
       <c r="E45" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F45" s="3">
         <v>1700</v>
       </c>
       <c r="G45" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H45" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I45" s="3">
-        <v>91100</v>
+        <v>93900</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>71400</v>
+        <v>73500</v>
       </c>
       <c r="E46" s="3">
-        <v>20300</v>
+        <v>21000</v>
       </c>
       <c r="F46" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="G46" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="H46" s="3">
-        <v>25900</v>
+        <v>26700</v>
       </c>
       <c r="I46" s="3">
-        <v>125100</v>
+        <v>128900</v>
       </c>
       <c r="J46" s="3">
-        <v>74300</v>
+        <v>76600</v>
       </c>
       <c r="K46" s="3">
         <v>22600</v>
@@ -1776,13 +1776,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E48" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F48" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="3">
         <v>1100</v>
@@ -1791,10 +1791,10 @@
         <v>2200</v>
       </c>
       <c r="I48" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J48" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="K48" s="3">
         <v>3400</v>
@@ -1896,7 +1896,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19000</v>
+        <v>19500</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>91100</v>
+        <v>93900</v>
       </c>
       <c r="E54" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="F54" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="G54" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="H54" s="3">
-        <v>28700</v>
+        <v>29600</v>
       </c>
       <c r="I54" s="3">
-        <v>127700</v>
+        <v>131600</v>
       </c>
       <c r="J54" s="3">
-        <v>79100</v>
+        <v>81500</v>
       </c>
       <c r="K54" s="3">
         <v>25900</v>
@@ -2017,22 +2017,22 @@
         <v>1900</v>
       </c>
       <c r="E57" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F57" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="G57" s="3">
         <v>1200</v>
       </c>
       <c r="H57" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I57" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J57" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K57" s="3">
         <v>2300</v>
@@ -2047,16 +2047,16 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="G58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H58" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>19</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="E59" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
-        <v>4800</v>
-      </c>
       <c r="H59" s="3">
-        <v>26600</v>
+        <v>27400</v>
       </c>
       <c r="I59" s="3">
-        <v>146500</v>
+        <v>150900</v>
       </c>
       <c r="J59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="E60" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="F60" s="3">
-        <v>19000</v>
+        <v>19600</v>
       </c>
       <c r="G60" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="H60" s="3">
-        <v>33700</v>
+        <v>34800</v>
       </c>
       <c r="I60" s="3">
-        <v>147700</v>
+        <v>152200</v>
       </c>
       <c r="J60" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K60" s="3">
         <v>2800</v>
@@ -2134,19 +2134,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16700</v>
+        <v>17200</v>
       </c>
       <c r="E61" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="F61" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="G61" s="3">
-        <v>17100</v>
+        <v>17600</v>
       </c>
       <c r="H61" s="3">
-        <v>20400</v>
+        <v>21000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2170,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H62" s="3">
-        <v>21800</v>
+        <v>22400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>19</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23600</v>
+        <v>24400</v>
       </c>
       <c r="E66" s="3">
-        <v>20600</v>
+        <v>21200</v>
       </c>
       <c r="F66" s="3">
-        <v>31700</v>
+        <v>32700</v>
       </c>
       <c r="G66" s="3">
-        <v>28000</v>
+        <v>28800</v>
       </c>
       <c r="H66" s="3">
-        <v>75800</v>
+        <v>78200</v>
       </c>
       <c r="I66" s="3">
-        <v>147700</v>
+        <v>152200</v>
       </c>
       <c r="J66" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K66" s="3">
         <v>3000</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-543000</v>
+        <v>-559500</v>
       </c>
       <c r="E72" s="3">
-        <v>-510800</v>
+        <v>-526400</v>
       </c>
       <c r="F72" s="3">
-        <v>-473700</v>
+        <v>-488100</v>
       </c>
       <c r="G72" s="3">
-        <v>-428300</v>
+        <v>-441400</v>
       </c>
       <c r="H72" s="3">
-        <v>-290400</v>
+        <v>-299200</v>
       </c>
       <c r="I72" s="3">
-        <v>-260800</v>
+        <v>-268700</v>
       </c>
       <c r="J72" s="3">
-        <v>-149000</v>
+        <v>-153500</v>
       </c>
       <c r="K72" s="3">
         <v>-112800</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67500</v>
+        <v>69600</v>
       </c>
       <c r="E76" s="3">
         <v>2600</v>
       </c>
       <c r="F76" s="3">
-        <v>-18700</v>
+        <v>-19200</v>
       </c>
       <c r="G76" s="3">
-        <v>-10800</v>
+        <v>-11100</v>
       </c>
       <c r="H76" s="3">
-        <v>-47100</v>
+        <v>-48600</v>
       </c>
       <c r="I76" s="3">
-        <v>-20000</v>
+        <v>-20600</v>
       </c>
       <c r="J76" s="3">
-        <v>75000</v>
+        <v>77200</v>
       </c>
       <c r="K76" s="3">
         <v>23000</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-32200</v>
+        <v>-33100</v>
       </c>
       <c r="E81" s="3">
-        <v>-37100</v>
+        <v>-38200</v>
       </c>
       <c r="F81" s="3">
-        <v>-45400</v>
+        <v>-46800</v>
       </c>
       <c r="G81" s="3">
-        <v>-139600</v>
+        <v>-143800</v>
       </c>
       <c r="H81" s="3">
-        <v>-29600</v>
+        <v>-30500</v>
       </c>
       <c r="I81" s="3">
-        <v>-111800</v>
+        <v>-115200</v>
       </c>
       <c r="J81" s="3">
-        <v>-34500</v>
+        <v>-35600</v>
       </c>
       <c r="K81" s="3">
         <v>-21900</v>
@@ -2713,7 +2713,7 @@
         <v>1000</v>
       </c>
       <c r="F83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-35000</v>
+        <v>-36100</v>
       </c>
       <c r="E89" s="3">
-        <v>-38100</v>
+        <v>-39200</v>
       </c>
       <c r="F89" s="3">
-        <v>-31000</v>
+        <v>-31900</v>
       </c>
       <c r="G89" s="3">
-        <v>-29500</v>
+        <v>-30400</v>
       </c>
       <c r="H89" s="3">
-        <v>-179100</v>
+        <v>-184600</v>
       </c>
       <c r="I89" s="3">
-        <v>-51400</v>
+        <v>-53000</v>
       </c>
       <c r="J89" s="3">
-        <v>-27500</v>
+        <v>-28300</v>
       </c>
       <c r="K89" s="3">
         <v>-10300</v>
@@ -2934,22 +2934,22 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-700</v>
       </c>
       <c r="I91" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="K91" s="3">
         <v>-1400</v>
@@ -3027,19 +3027,19 @@
         <v>-500</v>
       </c>
       <c r="F94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G94" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H94" s="3">
-        <v>89800</v>
+        <v>92600</v>
       </c>
       <c r="I94" s="3">
-        <v>-4300</v>
+        <v>-4500</v>
       </c>
       <c r="J94" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="K94" s="3">
         <v>-15300</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>85100</v>
+        <v>87700</v>
       </c>
       <c r="E100" s="3">
-        <v>48400</v>
+        <v>49900</v>
       </c>
       <c r="F100" s="3">
-        <v>26200</v>
+        <v>27000</v>
       </c>
       <c r="G100" s="3">
-        <v>17900</v>
+        <v>18400</v>
       </c>
       <c r="H100" s="3">
-        <v>84800</v>
+        <v>87300</v>
       </c>
       <c r="I100" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="J100" s="3">
-        <v>91500</v>
+        <v>94300</v>
       </c>
       <c r="K100" s="3">
         <v>28300</v>
@@ -3230,10 +3230,10 @@
         <v>-2500</v>
       </c>
       <c r="I101" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="J101" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="K101" s="3">
         <v>-200</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>49900</v>
+        <v>51400</v>
       </c>
       <c r="E102" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="F102" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="G102" s="3">
-        <v>-10700</v>
+        <v>-11000</v>
       </c>
       <c r="H102" s="3">
-        <v>-7000</v>
+        <v>-7300</v>
       </c>
       <c r="I102" s="3">
-        <v>-41400</v>
+        <v>-42700</v>
       </c>
       <c r="J102" s="3">
-        <v>64400</v>
+        <v>66400</v>
       </c>
       <c r="K102" s="3">
         <v>2500</v>

--- a/AAII_Financials/Yearly/NVCN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVCN_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E8" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G8" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H8" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="I8" s="3">
-        <v>12700</v>
+        <v>13200</v>
       </c>
       <c r="J8" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="K8" s="3">
         <v>18300</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E9" s="3">
         <v>600</v>
@@ -756,13 +756,13 @@
         <v>500</v>
       </c>
       <c r="H9" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="I9" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="J9" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="K9" s="3">
         <v>11700</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E10" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F10" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G10" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H10" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I10" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="J10" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K10" s="3">
         <v>6700</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="E12" s="3">
-        <v>26500</v>
+        <v>27500</v>
       </c>
       <c r="F12" s="3">
-        <v>26100</v>
+        <v>27000</v>
       </c>
       <c r="G12" s="3">
-        <v>20900</v>
+        <v>21700</v>
       </c>
       <c r="H12" s="3">
-        <v>22800</v>
+        <v>23700</v>
       </c>
       <c r="I12" s="3">
-        <v>25200</v>
+        <v>26200</v>
       </c>
       <c r="J12" s="3">
-        <v>22500</v>
+        <v>23400</v>
       </c>
       <c r="K12" s="3">
         <v>14600</v>
@@ -878,25 +878,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E14" s="3">
         <v>800</v>
       </c>
       <c r="F14" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G14" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="H14" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="I14" s="3">
-        <v>170000</v>
+        <v>176500</v>
       </c>
       <c r="J14" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="K14" s="3">
         <v>1100</v>
@@ -911,7 +911,7 @@
         <v>900</v>
       </c>
       <c r="E15" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F15" s="3">
         <v>900</v>
@@ -920,13 +920,13 @@
         <v>500</v>
       </c>
       <c r="H15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I15" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>300</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>44800</v>
+        <v>46500</v>
       </c>
       <c r="E17" s="3">
-        <v>49400</v>
+        <v>51300</v>
       </c>
       <c r="F17" s="3">
-        <v>42900</v>
+        <v>44600</v>
       </c>
       <c r="G17" s="3">
-        <v>45500</v>
+        <v>47200</v>
       </c>
       <c r="H17" s="3">
-        <v>51000</v>
+        <v>52900</v>
       </c>
       <c r="I17" s="3">
-        <v>214200</v>
+        <v>222300</v>
       </c>
       <c r="J17" s="3">
-        <v>51500</v>
+        <v>53500</v>
       </c>
       <c r="K17" s="3">
         <v>40300</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-41400</v>
+        <v>-43000</v>
       </c>
       <c r="E18" s="3">
-        <v>-46800</v>
+        <v>-48600</v>
       </c>
       <c r="F18" s="3">
-        <v>-40200</v>
+        <v>-41700</v>
       </c>
       <c r="G18" s="3">
-        <v>-43200</v>
+        <v>-44800</v>
       </c>
       <c r="H18" s="3">
-        <v>-43800</v>
+        <v>-45500</v>
       </c>
       <c r="I18" s="3">
-        <v>-201500</v>
+        <v>-209200</v>
       </c>
       <c r="J18" s="3">
-        <v>-38300</v>
+        <v>-39800</v>
       </c>
       <c r="K18" s="3">
         <v>-22000</v>
@@ -1023,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="E20" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="F20" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="G20" s="3">
-        <v>-100500</v>
+        <v>-104300</v>
       </c>
       <c r="H20" s="3">
-        <v>13900</v>
+        <v>14500</v>
       </c>
       <c r="I20" s="3">
-        <v>86600</v>
+        <v>89900</v>
       </c>
       <c r="J20" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-31300</v>
+        <v>-32500</v>
       </c>
       <c r="E21" s="3">
-        <v>-36500</v>
+        <v>-37900</v>
       </c>
       <c r="F21" s="3">
-        <v>-45700</v>
+        <v>-47500</v>
       </c>
       <c r="G21" s="3">
-        <v>-143200</v>
+        <v>-148600</v>
       </c>
       <c r="H21" s="3">
-        <v>-29100</v>
+        <v>-30300</v>
       </c>
       <c r="I21" s="3">
-        <v>-113900</v>
+        <v>-118300</v>
       </c>
       <c r="J21" s="3">
-        <v>-34700</v>
+        <v>-36000</v>
       </c>
       <c r="K21" s="3">
         <v>-21400</v>
@@ -1083,7 +1083,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E22" s="3">
         <v>1400</v>
@@ -1113,25 +1113,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-33000</v>
+        <v>-34300</v>
       </c>
       <c r="E23" s="3">
-        <v>-38900</v>
+        <v>-40400</v>
       </c>
       <c r="F23" s="3">
-        <v>-46700</v>
+        <v>-48500</v>
       </c>
       <c r="G23" s="3">
-        <v>-143700</v>
+        <v>-149200</v>
       </c>
       <c r="H23" s="3">
-        <v>-29900</v>
+        <v>-31000</v>
       </c>
       <c r="I23" s="3">
-        <v>-114900</v>
+        <v>-119300</v>
       </c>
       <c r="J23" s="3">
-        <v>-35400</v>
+        <v>-36700</v>
       </c>
       <c r="K23" s="3">
         <v>-21900</v>
@@ -1155,7 +1155,7 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33100</v>
+        <v>-34400</v>
       </c>
       <c r="E26" s="3">
-        <v>-38200</v>
+        <v>-39700</v>
       </c>
       <c r="F26" s="3">
-        <v>-46800</v>
+        <v>-48600</v>
       </c>
       <c r="G26" s="3">
-        <v>-143800</v>
+        <v>-149300</v>
       </c>
       <c r="H26" s="3">
-        <v>-30500</v>
+        <v>-31700</v>
       </c>
       <c r="I26" s="3">
-        <v>-115200</v>
+        <v>-119600</v>
       </c>
       <c r="J26" s="3">
-        <v>-35600</v>
+        <v>-37000</v>
       </c>
       <c r="K26" s="3">
         <v>-21900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33100</v>
+        <v>-34400</v>
       </c>
       <c r="E27" s="3">
-        <v>-38200</v>
+        <v>-39700</v>
       </c>
       <c r="F27" s="3">
-        <v>-46800</v>
+        <v>-48600</v>
       </c>
       <c r="G27" s="3">
-        <v>-143800</v>
+        <v>-149300</v>
       </c>
       <c r="H27" s="3">
-        <v>-30500</v>
+        <v>-31700</v>
       </c>
       <c r="I27" s="3">
-        <v>-115200</v>
+        <v>-119600</v>
       </c>
       <c r="J27" s="3">
-        <v>-35600</v>
+        <v>-37000</v>
       </c>
       <c r="K27" s="3">
         <v>-21900</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9200</v>
+        <v>-9600</v>
       </c>
       <c r="E32" s="3">
-        <v>-9300</v>
+        <v>-9700</v>
       </c>
       <c r="F32" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="G32" s="3">
-        <v>100500</v>
+        <v>104300</v>
       </c>
       <c r="H32" s="3">
-        <v>-13900</v>
+        <v>-14500</v>
       </c>
       <c r="I32" s="3">
-        <v>-86600</v>
+        <v>-89900</v>
       </c>
       <c r="J32" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33100</v>
+        <v>-34400</v>
       </c>
       <c r="E33" s="3">
-        <v>-38200</v>
+        <v>-39700</v>
       </c>
       <c r="F33" s="3">
-        <v>-46800</v>
+        <v>-48600</v>
       </c>
       <c r="G33" s="3">
-        <v>-143800</v>
+        <v>-149300</v>
       </c>
       <c r="H33" s="3">
-        <v>-30500</v>
+        <v>-31700</v>
       </c>
       <c r="I33" s="3">
-        <v>-115200</v>
+        <v>-119600</v>
       </c>
       <c r="J33" s="3">
-        <v>-35600</v>
+        <v>-37000</v>
       </c>
       <c r="K33" s="3">
         <v>-21900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33100</v>
+        <v>-34400</v>
       </c>
       <c r="E35" s="3">
-        <v>-38200</v>
+        <v>-39700</v>
       </c>
       <c r="F35" s="3">
-        <v>-46800</v>
+        <v>-48600</v>
       </c>
       <c r="G35" s="3">
-        <v>-143800</v>
+        <v>-149300</v>
       </c>
       <c r="H35" s="3">
-        <v>-30500</v>
+        <v>-31700</v>
       </c>
       <c r="I35" s="3">
-        <v>-115200</v>
+        <v>-119600</v>
       </c>
       <c r="J35" s="3">
-        <v>-35600</v>
+        <v>-37000</v>
       </c>
       <c r="K35" s="3">
         <v>-21900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>68600</v>
+        <v>71300</v>
       </c>
       <c r="E41" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="F41" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="G41" s="3">
-        <v>24600</v>
+        <v>25600</v>
       </c>
       <c r="H41" s="3">
-        <v>23300</v>
+        <v>24200</v>
       </c>
       <c r="I41" s="3">
-        <v>30600</v>
+        <v>31700</v>
       </c>
       <c r="J41" s="3">
-        <v>44400</v>
+        <v>46100</v>
       </c>
       <c r="K41" s="3">
         <v>6600</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>28900</v>
+        <v>30000</v>
       </c>
       <c r="K42" s="3">
         <v>13200</v>
@@ -1626,10 +1626,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F43" s="3">
         <v>1100</v>
@@ -1641,10 +1641,10 @@
         <v>1800</v>
       </c>
       <c r="I43" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J43" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K43" s="3">
         <v>3800</v>
@@ -1659,16 +1659,16 @@
         <v>2000</v>
       </c>
       <c r="E44" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F44" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G44" s="3">
         <v>400</v>
       </c>
       <c r="H44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
@@ -1686,22 +1686,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E45" s="3">
         <v>1200</v>
       </c>
       <c r="F45" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G45" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H45" s="3">
         <v>1100</v>
       </c>
       <c r="I45" s="3">
-        <v>93900</v>
+        <v>97500</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>73500</v>
+        <v>76400</v>
       </c>
       <c r="E46" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="F46" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="G46" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="H46" s="3">
-        <v>26700</v>
+        <v>27700</v>
       </c>
       <c r="I46" s="3">
-        <v>128900</v>
+        <v>133800</v>
       </c>
       <c r="J46" s="3">
-        <v>76600</v>
+        <v>79500</v>
       </c>
       <c r="K46" s="3">
         <v>22600</v>
@@ -1779,22 +1779,22 @@
         <v>900</v>
       </c>
       <c r="E48" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F48" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G48" s="3">
         <v>1100</v>
       </c>
       <c r="H48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
-        <v>2100</v>
-      </c>
       <c r="J48" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K48" s="3">
         <v>3400</v>
@@ -1896,10 +1896,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19500</v>
+        <v>20300</v>
       </c>
       <c r="E52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
@@ -1908,7 +1908,7 @@
         <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>93900</v>
+        <v>97500</v>
       </c>
       <c r="E54" s="3">
-        <v>23800</v>
+        <v>24700</v>
       </c>
       <c r="F54" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="G54" s="3">
-        <v>17700</v>
+        <v>18400</v>
       </c>
       <c r="H54" s="3">
-        <v>29600</v>
+        <v>30700</v>
       </c>
       <c r="I54" s="3">
-        <v>131600</v>
+        <v>136600</v>
       </c>
       <c r="J54" s="3">
-        <v>81500</v>
+        <v>84700</v>
       </c>
       <c r="K54" s="3">
         <v>25900</v>
@@ -2014,13 +2014,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E57" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="F57" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="G57" s="3">
         <v>1200</v>
@@ -2032,7 +2032,7 @@
         <v>1300</v>
       </c>
       <c r="J57" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K57" s="3">
         <v>2300</v>
@@ -2050,13 +2050,13 @@
         <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="G58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H58" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>19</v>
@@ -2074,22 +2074,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="E59" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G59" s="3">
         <v>5100</v>
       </c>
-      <c r="G59" s="3">
-        <v>4900</v>
-      </c>
       <c r="H59" s="3">
-        <v>27400</v>
+        <v>28500</v>
       </c>
       <c r="I59" s="3">
-        <v>150900</v>
+        <v>156700</v>
       </c>
       <c r="J59" s="3">
         <v>1000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="E60" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="F60" s="3">
-        <v>19600</v>
+        <v>20400</v>
       </c>
       <c r="G60" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="H60" s="3">
-        <v>34800</v>
+        <v>36100</v>
       </c>
       <c r="I60" s="3">
-        <v>152200</v>
+        <v>158000</v>
       </c>
       <c r="J60" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="K60" s="3">
         <v>2800</v>
@@ -2134,19 +2134,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="E61" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="F61" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="G61" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="H61" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>1600</v>
       </c>
       <c r="G62" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="H62" s="3">
-        <v>22400</v>
+        <v>23300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>19</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24400</v>
+        <v>25300</v>
       </c>
       <c r="E66" s="3">
-        <v>21200</v>
+        <v>22000</v>
       </c>
       <c r="F66" s="3">
-        <v>32700</v>
+        <v>33900</v>
       </c>
       <c r="G66" s="3">
-        <v>28800</v>
+        <v>29900</v>
       </c>
       <c r="H66" s="3">
-        <v>78200</v>
+        <v>81100</v>
       </c>
       <c r="I66" s="3">
-        <v>152200</v>
+        <v>158000</v>
       </c>
       <c r="J66" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="K66" s="3">
         <v>3000</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-559500</v>
+        <v>-580900</v>
       </c>
       <c r="E72" s="3">
-        <v>-526400</v>
+        <v>-546500</v>
       </c>
       <c r="F72" s="3">
-        <v>-488100</v>
+        <v>-506800</v>
       </c>
       <c r="G72" s="3">
-        <v>-441400</v>
+        <v>-458200</v>
       </c>
       <c r="H72" s="3">
-        <v>-299200</v>
+        <v>-310700</v>
       </c>
       <c r="I72" s="3">
-        <v>-268700</v>
+        <v>-279000</v>
       </c>
       <c r="J72" s="3">
-        <v>-153500</v>
+        <v>-159400</v>
       </c>
       <c r="K72" s="3">
         <v>-112800</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69600</v>
+        <v>72200</v>
       </c>
       <c r="E76" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F76" s="3">
-        <v>-19200</v>
+        <v>-20000</v>
       </c>
       <c r="G76" s="3">
-        <v>-11100</v>
+        <v>-11500</v>
       </c>
       <c r="H76" s="3">
-        <v>-48600</v>
+        <v>-50400</v>
       </c>
       <c r="I76" s="3">
-        <v>-20600</v>
+        <v>-21400</v>
       </c>
       <c r="J76" s="3">
-        <v>77200</v>
+        <v>80200</v>
       </c>
       <c r="K76" s="3">
         <v>23000</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33100</v>
+        <v>-34400</v>
       </c>
       <c r="E81" s="3">
-        <v>-38200</v>
+        <v>-39700</v>
       </c>
       <c r="F81" s="3">
-        <v>-46800</v>
+        <v>-48600</v>
       </c>
       <c r="G81" s="3">
-        <v>-143800</v>
+        <v>-149300</v>
       </c>
       <c r="H81" s="3">
-        <v>-30500</v>
+        <v>-31700</v>
       </c>
       <c r="I81" s="3">
-        <v>-115200</v>
+        <v>-119600</v>
       </c>
       <c r="J81" s="3">
-        <v>-35600</v>
+        <v>-37000</v>
       </c>
       <c r="K81" s="3">
         <v>-21900</v>
@@ -2710,7 +2710,7 @@
         <v>900</v>
       </c>
       <c r="E83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F83" s="3">
         <v>900</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-36100</v>
+        <v>-37500</v>
       </c>
       <c r="E89" s="3">
-        <v>-39200</v>
+        <v>-40700</v>
       </c>
       <c r="F89" s="3">
-        <v>-31900</v>
+        <v>-33100</v>
       </c>
       <c r="G89" s="3">
-        <v>-30400</v>
+        <v>-31500</v>
       </c>
       <c r="H89" s="3">
-        <v>-184600</v>
+        <v>-191700</v>
       </c>
       <c r="I89" s="3">
-        <v>-53000</v>
+        <v>-55000</v>
       </c>
       <c r="J89" s="3">
-        <v>-28300</v>
+        <v>-29400</v>
       </c>
       <c r="K89" s="3">
         <v>-10300</v>
@@ -2949,7 +2949,7 @@
         <v>-900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K91" s="3">
         <v>-1400</v>
@@ -3033,13 +3033,13 @@
         <v>1000</v>
       </c>
       <c r="H94" s="3">
-        <v>92600</v>
+        <v>96100</v>
       </c>
       <c r="I94" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="J94" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="K94" s="3">
         <v>-15300</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>87700</v>
+        <v>91100</v>
       </c>
       <c r="E100" s="3">
-        <v>49900</v>
+        <v>51800</v>
       </c>
       <c r="F100" s="3">
-        <v>27000</v>
+        <v>28100</v>
       </c>
       <c r="G100" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="H100" s="3">
-        <v>87300</v>
+        <v>90700</v>
       </c>
       <c r="I100" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="J100" s="3">
-        <v>94300</v>
+        <v>97900</v>
       </c>
       <c r="K100" s="3">
         <v>28300</v>
@@ -3227,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I101" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="J101" s="3">
-        <v>-9100</v>
+        <v>-9500</v>
       </c>
       <c r="K101" s="3">
         <v>-200</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>51400</v>
+        <v>53400</v>
       </c>
       <c r="E102" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="F102" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="G102" s="3">
-        <v>-11000</v>
+        <v>-11400</v>
       </c>
       <c r="H102" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="I102" s="3">
-        <v>-42700</v>
+        <v>-44300</v>
       </c>
       <c r="J102" s="3">
-        <v>66400</v>
+        <v>68900</v>
       </c>
       <c r="K102" s="3">
         <v>2500</v>
